--- a/Biomarker_annotation.xlsx
+++ b/Biomarker_annotation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbodinie/Dropbox/Teaching/Translational_Data_Science/Project_19-20/Data/UK_Biobank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luischavesrodriguez/OneDrive - Imperial College London/MScHDA/Term2/TDS/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CD5D471-0A13-FE4A-BE86-2FDB23157BC3}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>Alanine aminotransferase</t>
   </si>
@@ -129,6 +129,39 @@
   </si>
   <si>
     <t>Biomarker name</t>
+  </si>
+  <si>
+    <t>Endocrine</t>
+  </si>
+  <si>
+    <t>Metabolic</t>
+  </si>
+  <si>
+    <t>Inflammatory/Immune</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Liver Synthetic</t>
+  </si>
+  <si>
+    <t>System by paper</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>System by Fran</t>
+  </si>
+  <si>
+    <t>More_is_bad_Mantej</t>
+  </si>
+  <si>
+    <t>More_is_bad_paper</t>
   </si>
 </sst>
 </file>
@@ -503,265 +536,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EC7B42-54D3-D849-9328-5C0F1D16A97A}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="20.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="21.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>30620</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>30600</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>30610</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30630</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>30640</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>30650</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>30710</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>30680</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>30690</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>30700</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>30720</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>30660</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>30730</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>30740</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>30750</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30760</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>30770</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30780</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>30790</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>30800</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>30810</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>30820</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>30830</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>30850</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>30840</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>30860</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>30870</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30880</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30670</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30890</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Biomarker_annotation.xlsx
+++ b/Biomarker_annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luischavesrodriguez/OneDrive - Imperial College London/MScHDA/Term2/TDS/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catri\OneDrive\Documents\MSc HDA\Translational Data Sciences\BEES_TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CD5D471-0A13-FE4A-BE86-2FDB23157BC3}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7D89798-0B7E-4087-9888-7BB72877E340}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
+    <workbookView xWindow="10490" yWindow="0" windowWidth="7500" windowHeight="10200" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,11 +538,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EC7B42-54D3-D849-9328-5C0F1D16A97A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
@@ -552,7 +552,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -572,7 +572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>30620</v>
       </c>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>30600</v>
       </c>
@@ -612,7 +612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>30610</v>
       </c>
@@ -632,7 +632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>30630</v>
       </c>
@@ -652,7 +652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>30640</v>
       </c>
@@ -672,7 +672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>30650</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>30710</v>
       </c>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>30680</v>
       </c>
@@ -732,7 +732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>30690</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>30700</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>30720</v>
       </c>
@@ -792,7 +792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>30660</v>
       </c>
@@ -812,7 +812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>30730</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>30740</v>
       </c>
@@ -852,7 +852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>30750</v>
       </c>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>30760</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>30770</v>
       </c>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>30780</v>
       </c>
@@ -932,7 +932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>30790</v>
       </c>
@@ -952,7 +952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>30800</v>
       </c>
@@ -972,7 +972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>30810</v>
       </c>
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>30820</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>30830</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>30850</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>30840</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>30860</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>30870</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>30880</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>30670</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30890</v>
       </c>

--- a/Biomarker_annotation.xlsx
+++ b/Biomarker_annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catri\OneDrive\Documents\MSc HDA\Translational Data Sciences\BEES_TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/lc5415_ic_ac_uk/Documents/MScHDA/Term2/TDS/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7D89798-0B7E-4087-9888-7BB72877E340}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93A52E37-E437-2B4D-A716-125C2672DB6F}"/>
   <bookViews>
-    <workbookView xWindow="10490" yWindow="0" windowWidth="7500" windowHeight="10200" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
+    <workbookView xWindow="-25600" yWindow="5600" windowWidth="25600" windowHeight="16000" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
   <si>
     <t>Alanine aminotransferase</t>
   </si>
@@ -146,22 +146,25 @@
     <t>Liver</t>
   </si>
   <si>
-    <t>Liver Synthetic</t>
-  </si>
-  <si>
-    <t>System by paper</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>System by Fran</t>
-  </si>
-  <si>
-    <t>More_is_bad_Mantej</t>
-  </si>
-  <si>
-    <t>More_is_bad_paper</t>
+    <t>System.Paper</t>
+  </si>
+  <si>
+    <t>System.Barbara</t>
+  </si>
+  <si>
+    <t>MoreIsBad.Mantej</t>
+  </si>
+  <si>
+    <t>MoreIsBad.Paper</t>
+  </si>
+  <si>
+    <t>MoreIsBad.Barbara</t>
+  </si>
+  <si>
+    <t>System.Mantej</t>
   </si>
 </sst>
 </file>
@@ -536,23 +539,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EC7B42-54D3-D849-9328-5C0F1D16A97A}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="21.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -560,19 +565,25 @@
         <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>30620</v>
       </c>
@@ -585,14 +596,20 @@
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>30600</v>
       </c>
@@ -600,19 +617,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>30610</v>
       </c>
@@ -623,16 +646,22 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30630</v>
       </c>
@@ -643,16 +672,22 @@
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>30640</v>
       </c>
@@ -663,16 +698,22 @@
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>30650</v>
       </c>
@@ -685,14 +726,20 @@
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>30710</v>
       </c>
@@ -705,14 +752,20 @@
       <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>30680</v>
       </c>
@@ -723,16 +776,22 @@
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
         <v>-1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>30690</v>
       </c>
@@ -745,14 +804,20 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>30700</v>
       </c>
@@ -765,14 +830,20 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
         <v>-1</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>30720</v>
       </c>
@@ -783,16 +854,22 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>30660</v>
       </c>
@@ -803,16 +880,22 @@
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>30730</v>
       </c>
@@ -825,14 +908,20 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>30740</v>
       </c>
@@ -843,16 +932,22 @@
         <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
         <v>-1</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>30750</v>
       </c>
@@ -865,14 +960,20 @@
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30760</v>
       </c>
@@ -885,14 +986,20 @@
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>30770</v>
       </c>
@@ -905,14 +1012,20 @@
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2">
         <v>-1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30780</v>
       </c>
@@ -923,16 +1036,22 @@
         <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>30790</v>
       </c>
@@ -943,16 +1062,22 @@
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>30800</v>
       </c>
@@ -963,16 +1088,22 @@
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2">
         <v>-1</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>30810</v>
       </c>
@@ -983,16 +1114,22 @@
         <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="2">
         <v>-1</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>30820</v>
       </c>
@@ -1003,16 +1140,22 @@
         <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>30830</v>
       </c>
@@ -1023,16 +1166,22 @@
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2">
         <v>-1</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>30850</v>
       </c>
@@ -1045,14 +1194,20 @@
       <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2">
         <v>-1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>30840</v>
       </c>
@@ -1063,16 +1218,22 @@
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>30860</v>
       </c>
@@ -1083,16 +1244,22 @@
         <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2">
         <v>-1</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>30870</v>
       </c>
@@ -1105,14 +1272,20 @@
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="2">
-        <v>1</v>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30880</v>
       </c>
@@ -1123,16 +1296,22 @@
         <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30670</v>
       </c>
@@ -1143,16 +1322,22 @@
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30890</v>
       </c>
@@ -1163,13 +1348,19 @@
         <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>39</v>
+      <c r="G31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Biomarker_annotation.xlsx
+++ b/Biomarker_annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/lc5415_ic_ac_uk/Documents/MScHDA/Term2/TDS/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93A52E37-E437-2B4D-A716-125C2672DB6F}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{9A24B856-B701-2743-ADFC-7E0A35D99268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E18E3861-D1D1-5E4C-89BB-55EB08ADE161}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="5600" windowWidth="25600" windowHeight="16000" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
+    <workbookView xWindow="-25600" yWindow="6060" windowWidth="25600" windowHeight="15540" xr2:uid="{85285DCB-5536-7D41-BDF8-0554B552EAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="44">
   <si>
     <t>Alanine aminotransferase</t>
   </si>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EC7B42-54D3-D849-9328-5C0F1D16A97A}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1360,6 +1360,719 @@
         <v>37</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1425,6 +2138,36 @@
     <hyperlink ref="B30" r:id="rId58" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30670" xr:uid="{2B7FAF9E-A819-4644-85C0-B8DFAD982D8D}"/>
     <hyperlink ref="A31" r:id="rId59" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30890" xr:uid="{C4B5CBB0-D7C0-CB4B-9CF7-5DF4F99799AF}"/>
     <hyperlink ref="B31" r:id="rId60" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30890" xr:uid="{B0245222-53F9-3C41-99AD-7E07E629ABF8}"/>
+    <hyperlink ref="D44" r:id="rId61" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30620" xr:uid="{55945C6D-EEF5-A34A-93BC-CC2F4941FF5A}"/>
+    <hyperlink ref="D45" r:id="rId62" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30600" xr:uid="{05C87919-7B8A-2745-A3B2-AC82C07FA6F1}"/>
+    <hyperlink ref="D46" r:id="rId63" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30610" xr:uid="{D70302AD-EA49-9C4E-8AAB-4B9C1A7B64A2}"/>
+    <hyperlink ref="D47" r:id="rId64" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30630" xr:uid="{0726FE11-54E3-574E-A948-5748ADDF69B7}"/>
+    <hyperlink ref="D48" r:id="rId65" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30640" xr:uid="{365826B8-6071-D343-B98C-24A83673C3C5}"/>
+    <hyperlink ref="D49" r:id="rId66" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30650" xr:uid="{57DDB4D9-D570-704D-A7AA-BF6678B40FAC}"/>
+    <hyperlink ref="D50" r:id="rId67" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30710" xr:uid="{F71F3D53-CBA1-5741-84A2-5D209333552A}"/>
+    <hyperlink ref="D51" r:id="rId68" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30680" xr:uid="{C52051CF-1F98-7F49-9A7D-1953A82D7142}"/>
+    <hyperlink ref="D52" r:id="rId69" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30690" xr:uid="{6CAF1555-3420-6646-B904-CA58366E0692}"/>
+    <hyperlink ref="D53" r:id="rId70" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30700" xr:uid="{AE03D32D-929D-474D-A2A0-CD214E4D36DB}"/>
+    <hyperlink ref="D54" r:id="rId71" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30720" xr:uid="{EEDB0E59-D363-1541-8E6E-40EA1C4CAA00}"/>
+    <hyperlink ref="D55" r:id="rId72" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30660" xr:uid="{66554AB0-3CC6-C041-80B4-894CEAED501B}"/>
+    <hyperlink ref="D56" r:id="rId73" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30730" xr:uid="{DADB60C1-2644-6B44-A6A4-F0A9DC84C5F4}"/>
+    <hyperlink ref="D57" r:id="rId74" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30740" xr:uid="{7D2CE396-2ED6-3C48-B16A-973090206168}"/>
+    <hyperlink ref="D58" r:id="rId75" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30750" xr:uid="{2C7D52E8-E871-D449-9057-6319B6CFED81}"/>
+    <hyperlink ref="D59" r:id="rId76" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30760" xr:uid="{C2B5182F-D68D-CF4D-B26E-FC3441E766B8}"/>
+    <hyperlink ref="D60" r:id="rId77" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30770" xr:uid="{F5F2936D-23F5-054B-83E5-B4260F667B29}"/>
+    <hyperlink ref="D61" r:id="rId78" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30780" xr:uid="{A884D7F0-2AAE-264C-B745-7C145216121F}"/>
+    <hyperlink ref="D62" r:id="rId79" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30790" xr:uid="{E02C2F45-8B87-7C4E-ACA7-D5F452C5E124}"/>
+    <hyperlink ref="D63" r:id="rId80" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{ADE4C330-789F-DF49-91BB-9FA0BC69C0E8}"/>
+    <hyperlink ref="D64" r:id="rId81" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30810" xr:uid="{306A6B68-6653-D04F-87DF-85BCE19AD641}"/>
+    <hyperlink ref="D65" r:id="rId82" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30820" xr:uid="{1460F4B1-58E9-F34E-9B20-C5EDF30C1F15}"/>
+    <hyperlink ref="D66" r:id="rId83" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30830" xr:uid="{D0D6666E-B5A8-114A-BC39-35F40611D7C0}"/>
+    <hyperlink ref="D67" r:id="rId84" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30850" xr:uid="{308153E4-BAF2-7C40-8DFE-65662235D3CB}"/>
+    <hyperlink ref="D68" r:id="rId85" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30840" xr:uid="{8F23CDE7-67D0-F645-87BC-74EC51508938}"/>
+    <hyperlink ref="D69" r:id="rId86" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30860" xr:uid="{B310DC21-2726-C64D-9114-47451D2B49D1}"/>
+    <hyperlink ref="D70" r:id="rId87" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30870" xr:uid="{6D7A00CC-1DA0-0F45-A65C-A6EFF4945B78}"/>
+    <hyperlink ref="D71" r:id="rId88" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30880" xr:uid="{A90270BD-83AE-6840-8523-437529142905}"/>
+    <hyperlink ref="D72" r:id="rId89" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30670" xr:uid="{F22BEF30-FFE7-6447-8CDA-242E19000138}"/>
+    <hyperlink ref="D73" r:id="rId90" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30890" xr:uid="{FEAA17BB-5C33-3B49-BE39-EE32999105BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
